--- a/OutputData.xlsx
+++ b/OutputData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\420\Opravy\Programy\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan_markvart\Documents\Python\Projects\InteractiveDashBoadr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250729B5-883E-4CC5-B9B5-354168F8C283}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC82ED14-B15B-499F-B0EE-AF2427E331BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14055" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14052" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocolLastID" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
   <si>
     <t>protocol_id</t>
   </si>
@@ -180,27 +180,6 @@
   </si>
   <si>
     <t>abno</t>
-  </si>
-  <si>
-    <t>12437</t>
-  </si>
-  <si>
-    <t>GASKOM - servis s.r.o.</t>
-  </si>
-  <si>
-    <t>Počátky</t>
-  </si>
-  <si>
-    <t>28136322</t>
-  </si>
-  <si>
-    <t>606614961</t>
-  </si>
-  <si>
-    <t>dispecink@gaskom.cz</t>
-  </si>
-  <si>
-    <t>Při měření pomalu nabíhájí měřené hodnoty.</t>
   </si>
   <si>
     <t>přijmuto</t>
@@ -633,14 +612,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,7 +630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -662,7 +641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -673,7 +652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -684,7 +663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -695,7 +674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -706,7 +685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -717,7 +696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -728,7 +707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -739,7 +718,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -750,7 +729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -761,7 +740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -772,7 +751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -783,7 +762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -794,7 +773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -805,7 +784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -816,7 +795,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -827,7 +806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -838,7 +817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -849,7 +828,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -860,7 +839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -879,28 +858,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -938,149 +917,111 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
-      </c>
-      <c r="E2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>60</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" t="s">
-        <v>60</v>
-      </c>
-      <c r="L5">
         <v>0</v>
       </c>
     </row>
